--- a/Documentation/Team5_Estimated_Effort (3).xlsx
+++ b/Documentation/Team5_Estimated_Effort (3).xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgh8aTlN8lFgV0KmijXL596FyGa8Q=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mj5tPSI8I8n/KPUxpSfL0eTHzTPLQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="96">
   <si>
     <t>Task Name: (Dependencies top to bottom)</t>
   </si>
@@ -670,6 +670,84 @@
     <t>Created PPT for Midterm Presentation</t>
   </si>
   <si>
+    <t>Iteration 4:</t>
+  </si>
+  <si>
+    <t>Email Notification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transaction Controller </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notification Controller </t>
+  </si>
+  <si>
+    <t>Edited Transactions Page UI</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Sandy</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>(Trevor)</t>
+    </r>
+  </si>
+  <si>
+    <t>Worked on redirection to another page (after ASP) during user registration</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Trevor</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>(Sandy)</t>
+    </r>
+  </si>
+  <si>
+    <t>Made minor changes based on Presentation Feedback</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Sandy</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>(Trevor)</t>
+    </r>
+  </si>
+  <si>
     <t>Total</t>
   </si>
 </sst>
@@ -680,7 +758,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="16">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -720,15 +798,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12.0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <b/>
       <sz val="12.0"/>
       <color rgb="FF800000"/>
@@ -738,11 +807,37 @@
     <font>
       <b/>
       <sz val="12.0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -781,12 +876,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF333333"/>
         <bgColor rgb="FF333333"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="40">
     <border/>
     <border>
       <left style="thin">
@@ -1101,11 +1202,18 @@
         <color rgb="FF000000"/>
       </top>
     </border>
+    <border>
+      <right/>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="221">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1286,25 +1394,10 @@
     <xf borderId="25" fillId="4" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="18" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="17" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="23" fillId="4" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="24" fillId="4" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="9" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="11" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1322,7 +1415,7 @@
     <xf borderId="12" fillId="5" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="15" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1352,7 +1445,7 @@
     <xf borderId="16" fillId="6" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="14" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="15" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1469,10 +1562,10 @@
     <xf borderId="34" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="35" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="26" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="27" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="35" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="26" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="27" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="11" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -1508,12 +1601,6 @@
     </xf>
     <xf borderId="36" fillId="6" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="36" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="36" fillId="6" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1565,12 +1652,6 @@
     </xf>
     <xf borderId="18" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="17" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="17" fillId="6" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="18" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1644,40 +1725,144 @@
     <xf borderId="2" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="6" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="6" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="10" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="10" fillId="7" fontId="11" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="9" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="33" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="11" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="11" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="39" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="7" fontId="11" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="10" fillId="7" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="23" fillId="8" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="10" fillId="8" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="8" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="8" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="10" fillId="8" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="8" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="10" fillId="8" fontId="15" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -1906,7 +2091,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="18.71"/>
     <col customWidth="1" min="2" max="2" width="19.86"/>
-    <col customWidth="1" min="3" max="3" width="44.0"/>
+    <col customWidth="1" min="3" max="3" width="48.14"/>
     <col customWidth="1" min="4" max="4" width="23.57"/>
     <col customWidth="1" min="5" max="5" width="27.43"/>
     <col customWidth="1" min="6" max="6" width="11.71"/>
@@ -2685,39 +2870,39 @@
     <row r="16">
       <c r="A16" s="56"/>
       <c r="B16" s="47"/>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="48" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="61" t="s">
+      <c r="E16" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="62">
+      <c r="F16" s="51">
         <v>4.0</v>
       </c>
       <c r="G16" s="52"/>
-      <c r="H16" s="62">
+      <c r="H16" s="51">
         <v>12.0</v>
       </c>
       <c r="I16" s="52"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="63">
+      <c r="M16" s="57">
         <v>4.5</v>
       </c>
-      <c r="N16" s="64">
+      <c r="N16" s="58">
         <v>1.0</v>
       </c>
-      <c r="O16" s="64">
+      <c r="O16" s="58">
         <v>4.5</v>
       </c>
-      <c r="P16" s="64">
+      <c r="P16" s="58">
         <v>1.0</v>
       </c>
-      <c r="Q16" s="64">
+      <c r="Q16" s="58">
         <v>1.0</v>
       </c>
       <c r="R16" s="59"/>
@@ -2738,21 +2923,21 @@
       <c r="AG16" s="4"/>
     </row>
     <row r="17" ht="15.0" customHeight="1">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="60" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="69"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="64"/>
       <c r="G17" s="31">
         <f>SUM(F18:F22)</f>
         <v>6.5</v>
       </c>
-      <c r="H17" s="69"/>
+      <c r="H17" s="64"/>
       <c r="I17" s="31">
         <f>SUM(H18:H22)</f>
         <v>6.5</v>
@@ -2761,11 +2946,11 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="32"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="71">
+      <c r="N17" s="65"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="65"/>
+      <c r="Q17" s="65"/>
+      <c r="R17" s="66">
         <f>SUM(M18:Q22)</f>
         <v>20.5</v>
       </c>
@@ -2786,44 +2971,44 @@
       <c r="AG17" s="5"/>
     </row>
     <row r="18">
-      <c r="A18" s="65"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="73" t="s">
+      <c r="A18" s="60"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="74" t="s">
+      <c r="D18" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="75" t="s">
+      <c r="E18" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="76">
+      <c r="F18" s="71">
         <v>1.0</v>
       </c>
-      <c r="G18" s="77"/>
-      <c r="H18" s="76">
+      <c r="G18" s="72"/>
+      <c r="H18" s="71">
         <v>1.0</v>
       </c>
-      <c r="I18" s="78"/>
+      <c r="I18" s="73"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="79">
+      <c r="M18" s="74">
         <v>1.0</v>
       </c>
-      <c r="N18" s="80">
+      <c r="N18" s="75">
         <v>1.0</v>
       </c>
-      <c r="O18" s="80">
+      <c r="O18" s="75">
         <v>1.0</v>
       </c>
-      <c r="P18" s="80">
+      <c r="P18" s="75">
         <v>1.0</v>
       </c>
-      <c r="Q18" s="80">
+      <c r="Q18" s="75">
         <v>1.0</v>
       </c>
-      <c r="R18" s="81"/>
+      <c r="R18" s="76"/>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
@@ -2841,44 +3026,44 @@
       <c r="AG18" s="5"/>
     </row>
     <row r="19">
-      <c r="A19" s="65"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="73" t="s">
+      <c r="A19" s="60"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="74" t="s">
+      <c r="D19" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="75" t="s">
+      <c r="E19" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="76">
+      <c r="F19" s="71">
         <v>1.0</v>
       </c>
-      <c r="G19" s="77"/>
-      <c r="H19" s="76">
+      <c r="G19" s="72"/>
+      <c r="H19" s="71">
         <v>1.0</v>
       </c>
-      <c r="I19" s="77"/>
+      <c r="I19" s="72"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="79">
+      <c r="M19" s="74">
         <v>1.0</v>
       </c>
-      <c r="N19" s="80">
+      <c r="N19" s="75">
         <v>1.0</v>
       </c>
-      <c r="O19" s="80">
+      <c r="O19" s="75">
         <v>1.0</v>
       </c>
-      <c r="P19" s="80">
+      <c r="P19" s="75">
         <v>1.0</v>
       </c>
-      <c r="Q19" s="80">
+      <c r="Q19" s="75">
         <v>1.0</v>
       </c>
-      <c r="R19" s="81"/>
+      <c r="R19" s="76"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
@@ -2896,36 +3081,36 @@
       <c r="AG19" s="4"/>
     </row>
     <row r="20" ht="15.0" customHeight="1">
-      <c r="A20" s="65"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="73" t="s">
+      <c r="A20" s="60"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="74" t="s">
+      <c r="D20" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="74" t="s">
+      <c r="E20" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="76">
+      <c r="F20" s="71">
         <v>3.0</v>
       </c>
-      <c r="G20" s="77"/>
-      <c r="H20" s="76">
+      <c r="G20" s="72"/>
+      <c r="H20" s="71">
         <v>3.0</v>
       </c>
-      <c r="I20" s="77"/>
+      <c r="I20" s="72"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="80">
+      <c r="M20" s="74"/>
+      <c r="N20" s="75">
         <v>3.0</v>
       </c>
-      <c r="O20" s="80"/>
-      <c r="P20" s="80"/>
-      <c r="Q20" s="80"/>
-      <c r="R20" s="81"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="75"/>
+      <c r="R20" s="76"/>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
@@ -2943,44 +3128,44 @@
       <c r="AG20" s="4"/>
     </row>
     <row r="21">
-      <c r="A21" s="65"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="83" t="s">
+      <c r="A21" s="60"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="74" t="s">
+      <c r="D21" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="75" t="s">
+      <c r="E21" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="76">
+      <c r="F21" s="71">
         <v>1.0</v>
       </c>
-      <c r="G21" s="77"/>
-      <c r="H21" s="76">
+      <c r="G21" s="72"/>
+      <c r="H21" s="71">
         <v>0.5</v>
       </c>
-      <c r="I21" s="77"/>
+      <c r="I21" s="72"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="79">
+      <c r="M21" s="74">
         <v>0.5</v>
       </c>
-      <c r="N21" s="80">
+      <c r="N21" s="75">
         <v>0.5</v>
       </c>
-      <c r="O21" s="80">
+      <c r="O21" s="75">
         <v>0.5</v>
       </c>
-      <c r="P21" s="80">
+      <c r="P21" s="75">
         <v>0.5</v>
       </c>
-      <c r="Q21" s="80">
+      <c r="Q21" s="75">
         <v>0.5</v>
       </c>
-      <c r="R21" s="81"/>
+      <c r="R21" s="76"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
@@ -2998,44 +3183,44 @@
       <c r="AG21" s="4"/>
     </row>
     <row r="22">
-      <c r="A22" s="65"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="83" t="s">
+      <c r="A22" s="60"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="74" t="s">
+      <c r="D22" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="75" t="s">
+      <c r="E22" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="76">
+      <c r="F22" s="71">
         <v>0.5</v>
       </c>
-      <c r="G22" s="77"/>
-      <c r="H22" s="76">
+      <c r="G22" s="72"/>
+      <c r="H22" s="71">
         <v>1.0</v>
       </c>
-      <c r="I22" s="77"/>
+      <c r="I22" s="72"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="79">
+      <c r="M22" s="74">
         <v>1.0</v>
       </c>
-      <c r="N22" s="80">
+      <c r="N22" s="75">
         <v>1.0</v>
       </c>
-      <c r="O22" s="80">
+      <c r="O22" s="75">
         <v>1.0</v>
       </c>
-      <c r="P22" s="80">
+      <c r="P22" s="75">
         <v>1.0</v>
       </c>
-      <c r="Q22" s="80">
+      <c r="Q22" s="75">
         <v>1.0</v>
       </c>
-      <c r="R22" s="81"/>
+      <c r="R22" s="76"/>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
@@ -3053,19 +3238,19 @@
       <c r="AG22" s="4"/>
     </row>
     <row r="23" ht="15.0" customHeight="1">
-      <c r="A23" s="65"/>
-      <c r="B23" s="85" t="s">
+      <c r="A23" s="60"/>
+      <c r="B23" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="86"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="87"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="82"/>
       <c r="G23" s="31">
         <f>SUM(F24:F25)</f>
         <v>2</v>
       </c>
-      <c r="H23" s="87"/>
+      <c r="H23" s="82"/>
       <c r="I23" s="31">
         <f>SUM(H24:H25)</f>
         <v>1.5</v>
@@ -3099,44 +3284,44 @@
       <c r="AG23" s="4"/>
     </row>
     <row r="24" ht="18.75" customHeight="1">
-      <c r="A24" s="65"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="73" t="s">
+      <c r="A24" s="60"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="74" t="s">
+      <c r="D24" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="75" t="s">
+      <c r="E24" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="76">
+      <c r="F24" s="71">
         <v>1.0</v>
       </c>
-      <c r="G24" s="77"/>
-      <c r="H24" s="76">
+      <c r="G24" s="72"/>
+      <c r="H24" s="71">
         <v>1.0</v>
       </c>
-      <c r="I24" s="77"/>
+      <c r="I24" s="72"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="79">
+      <c r="M24" s="74">
         <v>1.0</v>
       </c>
-      <c r="N24" s="79">
+      <c r="N24" s="74">
         <v>1.0</v>
       </c>
-      <c r="O24" s="79">
+      <c r="O24" s="74">
         <v>1.0</v>
       </c>
-      <c r="P24" s="79">
+      <c r="P24" s="74">
         <v>1.0</v>
       </c>
-      <c r="Q24" s="79">
+      <c r="Q24" s="74">
         <v>1.0</v>
       </c>
-      <c r="R24" s="88"/>
+      <c r="R24" s="83"/>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
@@ -3154,44 +3339,44 @@
       <c r="AG24" s="4"/>
     </row>
     <row r="25" ht="33.0" customHeight="1">
-      <c r="A25" s="65"/>
-      <c r="B25" s="84"/>
-      <c r="C25" s="73" t="s">
+      <c r="A25" s="60"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="74" t="s">
+      <c r="D25" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="75" t="s">
+      <c r="E25" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="76">
+      <c r="F25" s="71">
         <v>1.0</v>
       </c>
-      <c r="G25" s="77"/>
-      <c r="H25" s="76">
+      <c r="G25" s="72"/>
+      <c r="H25" s="71">
         <v>0.5</v>
       </c>
-      <c r="I25" s="77"/>
+      <c r="I25" s="72"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="76">
+      <c r="M25" s="71">
         <v>0.5</v>
       </c>
-      <c r="N25" s="76">
+      <c r="N25" s="71">
         <v>0.5</v>
       </c>
-      <c r="O25" s="76">
+      <c r="O25" s="71">
         <v>0.5</v>
       </c>
-      <c r="P25" s="76">
+      <c r="P25" s="71">
         <v>0.5</v>
       </c>
-      <c r="Q25" s="76">
+      <c r="Q25" s="71">
         <v>0.5</v>
       </c>
-      <c r="R25" s="88"/>
+      <c r="R25" s="83"/>
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
@@ -3209,34 +3394,34 @@
       <c r="AG25" s="4"/>
     </row>
     <row r="26" ht="15.0" customHeight="1">
-      <c r="A26" s="89" t="s">
+      <c r="A26" s="84" t="s">
         <v>44</v>
       </c>
       <c r="B26" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="90"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="91">
+      <c r="C26" s="85"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="86">
         <f>SUM(F27:F28)</f>
         <v>2</v>
       </c>
-      <c r="H26" s="87"/>
-      <c r="I26" s="91">
+      <c r="H26" s="82"/>
+      <c r="I26" s="86">
         <f>SUM(H27:H28)</f>
         <v>4</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
-      <c r="M26" s="92"/>
-      <c r="N26" s="92"/>
-      <c r="O26" s="92"/>
-      <c r="P26" s="92"/>
-      <c r="Q26" s="92"/>
-      <c r="R26" s="93">
+      <c r="M26" s="87"/>
+      <c r="N26" s="87"/>
+      <c r="O26" s="87"/>
+      <c r="P26" s="87"/>
+      <c r="Q26" s="87"/>
+      <c r="R26" s="88">
         <f>SUM(M27:Q28)</f>
         <v>6.5</v>
       </c>
@@ -3257,40 +3442,40 @@
       <c r="AG26" s="5"/>
     </row>
     <row r="27">
-      <c r="A27" s="94"/>
-      <c r="B27" s="95"/>
-      <c r="C27" s="96" t="s">
+      <c r="A27" s="89"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="97" t="s">
+      <c r="D27" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="98" t="s">
+      <c r="E27" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="99">
+      <c r="F27" s="94">
         <v>1.0</v>
       </c>
-      <c r="G27" s="100"/>
-      <c r="H27" s="99">
+      <c r="G27" s="95"/>
+      <c r="H27" s="94">
         <v>1.0</v>
       </c>
-      <c r="I27" s="101"/>
+      <c r="I27" s="96"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="102">
+      <c r="M27" s="97">
         <v>0.5</v>
       </c>
-      <c r="N27" s="102">
+      <c r="N27" s="97">
         <v>0.5</v>
       </c>
-      <c r="O27" s="102">
+      <c r="O27" s="97">
         <v>1.0</v>
       </c>
-      <c r="P27" s="103"/>
-      <c r="Q27" s="103"/>
-      <c r="R27" s="104"/>
+      <c r="P27" s="98"/>
+      <c r="Q27" s="98"/>
+      <c r="R27" s="99"/>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
@@ -3308,40 +3493,40 @@
       <c r="AG27" s="4"/>
     </row>
     <row r="28">
-      <c r="A28" s="89"/>
-      <c r="B28" s="95"/>
-      <c r="C28" s="105" t="s">
+      <c r="A28" s="84"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="106" t="s">
+      <c r="D28" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="107" t="s">
+      <c r="E28" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="108">
+      <c r="F28" s="103">
         <v>1.0</v>
       </c>
-      <c r="G28" s="109"/>
-      <c r="H28" s="108">
+      <c r="G28" s="104"/>
+      <c r="H28" s="103">
         <v>3.0</v>
       </c>
-      <c r="I28" s="101"/>
+      <c r="I28" s="96"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="102">
+      <c r="M28" s="97">
         <v>1.5</v>
       </c>
-      <c r="N28" s="102">
+      <c r="N28" s="97">
         <v>1.5</v>
       </c>
-      <c r="O28" s="102">
+      <c r="O28" s="97">
         <v>1.5</v>
       </c>
-      <c r="P28" s="103"/>
-      <c r="Q28" s="103"/>
-      <c r="R28" s="104"/>
+      <c r="P28" s="98"/>
+      <c r="Q28" s="98"/>
+      <c r="R28" s="99"/>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
@@ -3359,32 +3544,32 @@
       <c r="AG28" s="4"/>
     </row>
     <row r="29" ht="15.0" customHeight="1">
-      <c r="A29" s="89"/>
+      <c r="A29" s="84"/>
       <c r="B29" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="90"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="91">
+      <c r="C29" s="85"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="86">
         <f>SUM(F30:F34)</f>
         <v>7.5</v>
       </c>
-      <c r="H29" s="87"/>
-      <c r="I29" s="91">
+      <c r="H29" s="82"/>
+      <c r="I29" s="86">
         <f>SUM(H30:H34)</f>
         <v>9.3</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="92"/>
-      <c r="N29" s="92"/>
-      <c r="O29" s="92"/>
-      <c r="P29" s="92"/>
-      <c r="Q29" s="92"/>
-      <c r="R29" s="110">
+      <c r="M29" s="87"/>
+      <c r="N29" s="87"/>
+      <c r="O29" s="87"/>
+      <c r="P29" s="87"/>
+      <c r="Q29" s="87"/>
+      <c r="R29" s="105">
         <f>SUM(M30:Q34)</f>
         <v>9.25</v>
       </c>
@@ -3405,9 +3590,9 @@
       <c r="AG29" s="4"/>
     </row>
     <row r="30" ht="15.0" customHeight="1">
-      <c r="A30" s="89"/>
-      <c r="B30" s="95"/>
-      <c r="C30" s="111" t="s">
+      <c r="A30" s="84"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="106" t="s">
         <v>51</v>
       </c>
       <c r="D30" s="49" t="s">
@@ -3419,22 +3604,22 @@
       <c r="F30" s="51">
         <v>0.5</v>
       </c>
-      <c r="G30" s="101"/>
+      <c r="G30" s="96"/>
       <c r="H30" s="51">
         <v>0.3</v>
       </c>
-      <c r="I30" s="101"/>
+      <c r="I30" s="96"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="103"/>
-      <c r="N30" s="103"/>
-      <c r="O30" s="103"/>
-      <c r="P30" s="102">
+      <c r="M30" s="98"/>
+      <c r="N30" s="98"/>
+      <c r="O30" s="98"/>
+      <c r="P30" s="97">
         <v>0.25</v>
       </c>
-      <c r="Q30" s="103"/>
-      <c r="R30" s="104"/>
+      <c r="Q30" s="98"/>
+      <c r="R30" s="99"/>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
@@ -3452,9 +3637,9 @@
       <c r="AG30" s="4"/>
     </row>
     <row r="31" ht="15.0" customHeight="1">
-      <c r="A31" s="89"/>
-      <c r="B31" s="95"/>
-      <c r="C31" s="111" t="s">
+      <c r="A31" s="84"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="106" t="s">
         <v>54</v>
       </c>
       <c r="D31" s="49" t="s">
@@ -3466,22 +3651,22 @@
       <c r="F31" s="51">
         <v>1.0</v>
       </c>
-      <c r="G31" s="101"/>
+      <c r="G31" s="96"/>
       <c r="H31" s="51">
         <v>3.0</v>
       </c>
-      <c r="I31" s="101"/>
+      <c r="I31" s="96"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="103"/>
-      <c r="N31" s="103"/>
-      <c r="O31" s="103"/>
-      <c r="P31" s="102">
+      <c r="M31" s="98"/>
+      <c r="N31" s="98"/>
+      <c r="O31" s="98"/>
+      <c r="P31" s="97">
         <v>3.0</v>
       </c>
-      <c r="Q31" s="103"/>
-      <c r="R31" s="104"/>
+      <c r="Q31" s="98"/>
+      <c r="R31" s="99"/>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
@@ -3499,8 +3684,8 @@
       <c r="AG31" s="4"/>
     </row>
     <row r="32" ht="15.0" customHeight="1">
-      <c r="A32" s="89"/>
-      <c r="B32" s="112"/>
+      <c r="A32" s="84"/>
+      <c r="B32" s="107"/>
       <c r="C32" s="44" t="s">
         <v>56</v>
       </c>
@@ -3513,22 +3698,22 @@
       <c r="F32" s="38">
         <v>1.0</v>
       </c>
-      <c r="G32" s="113"/>
+      <c r="G32" s="108"/>
       <c r="H32" s="38">
         <v>1.0</v>
       </c>
-      <c r="I32" s="113"/>
+      <c r="I32" s="108"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="114"/>
-      <c r="N32" s="114"/>
-      <c r="O32" s="114"/>
-      <c r="P32" s="115">
+      <c r="M32" s="109"/>
+      <c r="N32" s="109"/>
+      <c r="O32" s="109"/>
+      <c r="P32" s="110">
         <v>1.0</v>
       </c>
-      <c r="Q32" s="114"/>
-      <c r="R32" s="116"/>
+      <c r="Q32" s="109"/>
+      <c r="R32" s="111"/>
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
@@ -3546,9 +3731,9 @@
       <c r="AG32" s="4"/>
     </row>
     <row r="33" ht="15.0" customHeight="1">
-      <c r="A33" s="89"/>
-      <c r="B33" s="95"/>
-      <c r="C33" s="111" t="s">
+      <c r="A33" s="84"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="106" t="s">
         <v>58</v>
       </c>
       <c r="D33" s="49" t="s">
@@ -3560,22 +3745,22 @@
       <c r="F33" s="51">
         <v>1.0</v>
       </c>
-      <c r="G33" s="101"/>
+      <c r="G33" s="96"/>
       <c r="H33" s="51">
         <v>1.0</v>
       </c>
-      <c r="I33" s="101"/>
+      <c r="I33" s="96"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="103"/>
-      <c r="N33" s="103"/>
-      <c r="O33" s="103"/>
-      <c r="P33" s="102">
+      <c r="M33" s="98"/>
+      <c r="N33" s="98"/>
+      <c r="O33" s="98"/>
+      <c r="P33" s="97">
         <v>1.0</v>
       </c>
-      <c r="Q33" s="103"/>
-      <c r="R33" s="104"/>
+      <c r="Q33" s="98"/>
+      <c r="R33" s="99"/>
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
@@ -3593,9 +3778,9 @@
       <c r="AG33" s="4"/>
     </row>
     <row r="34" ht="15.0" customHeight="1">
-      <c r="A34" s="89"/>
-      <c r="B34" s="95"/>
-      <c r="C34" s="111" t="s">
+      <c r="A34" s="84"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="106" t="s">
         <v>60</v>
       </c>
       <c r="D34" s="49" t="s">
@@ -3607,22 +3792,22 @@
       <c r="F34" s="51">
         <v>4.0</v>
       </c>
-      <c r="G34" s="101"/>
+      <c r="G34" s="96"/>
       <c r="H34" s="51">
         <v>4.0</v>
       </c>
-      <c r="I34" s="101"/>
+      <c r="I34" s="96"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="103"/>
-      <c r="N34" s="102">
+      <c r="M34" s="98"/>
+      <c r="N34" s="97">
         <v>4.0</v>
       </c>
-      <c r="O34" s="103"/>
-      <c r="P34" s="103"/>
-      <c r="Q34" s="103"/>
-      <c r="R34" s="104"/>
+      <c r="O34" s="98"/>
+      <c r="P34" s="98"/>
+      <c r="Q34" s="98"/>
+      <c r="R34" s="99"/>
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
@@ -3640,32 +3825,32 @@
       <c r="AG34" s="4"/>
     </row>
     <row r="35" ht="15.0" customHeight="1">
-      <c r="A35" s="89"/>
+      <c r="A35" s="84"/>
       <c r="B35" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="90"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="117"/>
-      <c r="G35" s="118">
+      <c r="C35" s="85"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="112"/>
+      <c r="G35" s="113">
         <f>SUM(F36:F39)</f>
         <v>3.5</v>
       </c>
-      <c r="H35" s="119"/>
-      <c r="I35" s="91">
+      <c r="H35" s="114"/>
+      <c r="I35" s="86">
         <f>SUM(H36:H39)</f>
         <v>3.5</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
-      <c r="M35" s="92"/>
-      <c r="N35" s="92"/>
-      <c r="O35" s="92"/>
-      <c r="P35" s="92"/>
-      <c r="Q35" s="92"/>
-      <c r="R35" s="110">
+      <c r="M35" s="87"/>
+      <c r="N35" s="87"/>
+      <c r="O35" s="87"/>
+      <c r="P35" s="87"/>
+      <c r="Q35" s="87"/>
+      <c r="R35" s="105">
         <f>SUM(M36:Q39)</f>
         <v>7.5</v>
       </c>
@@ -3686,9 +3871,9 @@
       <c r="AG35" s="4"/>
     </row>
     <row r="36" ht="15.0" customHeight="1">
-      <c r="A36" s="120"/>
-      <c r="B36" s="95"/>
-      <c r="C36" s="111" t="s">
+      <c r="A36" s="115"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="106" t="s">
         <v>63</v>
       </c>
       <c r="D36" s="49" t="s">
@@ -3700,22 +3885,22 @@
       <c r="F36" s="51">
         <v>2.0</v>
       </c>
-      <c r="G36" s="101"/>
+      <c r="G36" s="96"/>
       <c r="H36" s="51">
         <v>2.0</v>
       </c>
-      <c r="I36" s="101"/>
+      <c r="I36" s="96"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
-      <c r="M36" s="103"/>
-      <c r="N36" s="103"/>
-      <c r="O36" s="102">
+      <c r="M36" s="98"/>
+      <c r="N36" s="98"/>
+      <c r="O36" s="97">
         <v>1.0</v>
       </c>
-      <c r="P36" s="102"/>
-      <c r="Q36" s="103"/>
-      <c r="R36" s="104"/>
+      <c r="P36" s="97"/>
+      <c r="Q36" s="98"/>
+      <c r="R36" s="99"/>
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
@@ -3733,26 +3918,26 @@
       <c r="AG36" s="4"/>
     </row>
     <row r="37" ht="15.0" customHeight="1">
-      <c r="A37" s="121"/>
-      <c r="B37" s="122"/>
-      <c r="C37" s="123"/>
-      <c r="D37" s="123"/>
-      <c r="E37" s="123"/>
-      <c r="F37" s="122"/>
-      <c r="G37" s="124"/>
-      <c r="H37" s="122"/>
-      <c r="I37" s="124"/>
-      <c r="M37" s="122"/>
-      <c r="N37" s="122"/>
-      <c r="O37" s="122"/>
-      <c r="P37" s="122"/>
-      <c r="Q37" s="122"/>
-      <c r="R37" s="122"/>
+      <c r="A37" s="116"/>
+      <c r="B37" s="117"/>
+      <c r="C37" s="118"/>
+      <c r="D37" s="118"/>
+      <c r="E37" s="118"/>
+      <c r="F37" s="117"/>
+      <c r="G37" s="119"/>
+      <c r="H37" s="117"/>
+      <c r="I37" s="119"/>
+      <c r="M37" s="117"/>
+      <c r="N37" s="117"/>
+      <c r="O37" s="117"/>
+      <c r="P37" s="117"/>
+      <c r="Q37" s="117"/>
+      <c r="R37" s="117"/>
     </row>
     <row r="38">
-      <c r="A38" s="89"/>
-      <c r="B38" s="95"/>
-      <c r="C38" s="111" t="s">
+      <c r="A38" s="84"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="106" t="s">
         <v>64</v>
       </c>
       <c r="D38" s="49" t="s">
@@ -3764,30 +3949,30 @@
       <c r="F38" s="51">
         <v>1.0</v>
       </c>
-      <c r="G38" s="101"/>
+      <c r="G38" s="96"/>
       <c r="H38" s="51">
         <v>1.0</v>
       </c>
-      <c r="I38" s="101"/>
+      <c r="I38" s="96"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="102">
+      <c r="M38" s="97">
         <v>1.0</v>
       </c>
-      <c r="N38" s="102">
+      <c r="N38" s="97">
         <v>1.0</v>
       </c>
-      <c r="O38" s="102">
+      <c r="O38" s="97">
         <v>1.0</v>
       </c>
-      <c r="P38" s="102">
+      <c r="P38" s="97">
         <v>1.0</v>
       </c>
-      <c r="Q38" s="102">
+      <c r="Q38" s="97">
         <v>1.0</v>
       </c>
-      <c r="R38" s="104"/>
+      <c r="R38" s="99"/>
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
@@ -3805,12 +3990,12 @@
       <c r="AG38" s="4"/>
     </row>
     <row r="39">
-      <c r="A39" s="89"/>
-      <c r="B39" s="95"/>
-      <c r="C39" s="111" t="s">
+      <c r="A39" s="84"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="D39" s="106" t="s">
+      <c r="D39" s="101" t="s">
         <v>47</v>
       </c>
       <c r="E39" s="50" t="s">
@@ -3819,26 +4004,26 @@
       <c r="F39" s="51">
         <v>0.5</v>
       </c>
-      <c r="G39" s="101"/>
+      <c r="G39" s="96"/>
       <c r="H39" s="51">
         <v>0.5</v>
       </c>
-      <c r="I39" s="101"/>
+      <c r="I39" s="96"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="102">
+      <c r="M39" s="97">
         <v>0.5</v>
       </c>
-      <c r="N39" s="102">
+      <c r="N39" s="97">
         <v>0.5</v>
       </c>
-      <c r="O39" s="102">
+      <c r="O39" s="97">
         <v>0.5</v>
       </c>
-      <c r="P39" s="103"/>
-      <c r="Q39" s="103"/>
-      <c r="R39" s="104"/>
+      <c r="P39" s="98"/>
+      <c r="Q39" s="98"/>
+      <c r="R39" s="99"/>
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
@@ -3856,34 +4041,34 @@
       <c r="AG39" s="4"/>
     </row>
     <row r="40" ht="15.0" customHeight="1">
-      <c r="A40" s="65" t="s">
+      <c r="A40" s="60" t="s">
         <v>67</v>
       </c>
       <c r="B40" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="125"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="69"/>
-      <c r="G40" s="91">
+      <c r="C40" s="120"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="86">
         <f>SUM(F41:F43)</f>
         <v>4.5</v>
       </c>
-      <c r="H40" s="69"/>
-      <c r="I40" s="91">
+      <c r="H40" s="64"/>
+      <c r="I40" s="86">
         <f>SUM(H41:H43)</f>
         <v>12.5</v>
       </c>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
-      <c r="M40" s="92"/>
-      <c r="N40" s="92"/>
-      <c r="O40" s="92"/>
-      <c r="P40" s="92"/>
-      <c r="Q40" s="92"/>
-      <c r="R40" s="110">
+      <c r="M40" s="87"/>
+      <c r="N40" s="87"/>
+      <c r="O40" s="87"/>
+      <c r="P40" s="87"/>
+      <c r="Q40" s="87"/>
+      <c r="R40" s="105">
         <f>SUM(M41:Q43)</f>
         <v>12.5</v>
       </c>
@@ -3904,36 +4089,36 @@
       <c r="AG40" s="5"/>
     </row>
     <row r="41" ht="15.0" customHeight="1">
-      <c r="A41" s="126"/>
-      <c r="B41" s="127"/>
-      <c r="C41" s="128" t="s">
+      <c r="A41" s="121"/>
+      <c r="B41" s="122"/>
+      <c r="C41" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="D41" s="129" t="s">
+      <c r="D41" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="E41" s="130" t="s">
+      <c r="E41" s="125" t="s">
         <v>69</v>
       </c>
-      <c r="F41" s="131">
+      <c r="F41" s="126">
         <v>0.5</v>
       </c>
-      <c r="G41" s="132"/>
-      <c r="H41" s="131">
+      <c r="G41" s="127"/>
+      <c r="H41" s="126">
         <v>0.5</v>
       </c>
-      <c r="I41" s="133"/>
+      <c r="I41" s="128"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="134"/>
-      <c r="N41" s="134"/>
-      <c r="O41" s="134"/>
-      <c r="P41" s="135">
+      <c r="M41" s="129"/>
+      <c r="N41" s="129"/>
+      <c r="O41" s="129"/>
+      <c r="P41" s="130">
         <v>0.5</v>
       </c>
-      <c r="Q41" s="134"/>
-      <c r="R41" s="136"/>
+      <c r="Q41" s="129"/>
+      <c r="R41" s="131"/>
       <c r="S41" s="4"/>
       <c r="T41" s="4"/>
       <c r="U41" s="4"/>
@@ -3951,44 +4136,44 @@
       <c r="AG41" s="4"/>
     </row>
     <row r="42" ht="36.75" customHeight="1">
-      <c r="A42" s="126"/>
-      <c r="B42" s="127"/>
-      <c r="C42" s="128" t="s">
+      <c r="A42" s="121"/>
+      <c r="B42" s="122"/>
+      <c r="C42" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="129" t="s">
+      <c r="D42" s="124" t="s">
         <v>70</v>
       </c>
-      <c r="E42" s="130" t="s">
+      <c r="E42" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="F42" s="131">
+      <c r="F42" s="126">
         <v>4.0</v>
       </c>
-      <c r="G42" s="132"/>
-      <c r="H42" s="137">
+      <c r="G42" s="127"/>
+      <c r="H42" s="126">
         <v>12.0</v>
       </c>
-      <c r="I42" s="133"/>
+      <c r="I42" s="128"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="138">
+      <c r="M42" s="130">
         <v>4.5</v>
       </c>
-      <c r="N42" s="138">
+      <c r="N42" s="130">
         <v>1.0</v>
       </c>
-      <c r="O42" s="138">
+      <c r="O42" s="130">
         <v>4.5</v>
       </c>
-      <c r="P42" s="138">
+      <c r="P42" s="130">
         <v>1.0</v>
       </c>
-      <c r="Q42" s="138">
+      <c r="Q42" s="130">
         <v>1.0</v>
       </c>
-      <c r="R42" s="136"/>
+      <c r="R42" s="131"/>
       <c r="S42" s="4"/>
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
@@ -4006,24 +4191,24 @@
       <c r="AG42" s="4"/>
     </row>
     <row r="43" ht="15.0" customHeight="1">
-      <c r="A43" s="126"/>
-      <c r="B43" s="139"/>
-      <c r="C43" s="140"/>
-      <c r="D43" s="141"/>
-      <c r="E43" s="142"/>
-      <c r="F43" s="143"/>
-      <c r="G43" s="144"/>
-      <c r="H43" s="143"/>
-      <c r="I43" s="145"/>
+      <c r="A43" s="121"/>
+      <c r="B43" s="132"/>
+      <c r="C43" s="133"/>
+      <c r="D43" s="134"/>
+      <c r="E43" s="135"/>
+      <c r="F43" s="136"/>
+      <c r="G43" s="137"/>
+      <c r="H43" s="136"/>
+      <c r="I43" s="138"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="146"/>
-      <c r="N43" s="146"/>
-      <c r="O43" s="146"/>
-      <c r="P43" s="146"/>
-      <c r="Q43" s="146"/>
-      <c r="R43" s="147"/>
+      <c r="M43" s="139"/>
+      <c r="N43" s="139"/>
+      <c r="O43" s="139"/>
+      <c r="P43" s="139"/>
+      <c r="Q43" s="139"/>
+      <c r="R43" s="140"/>
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
@@ -4041,32 +4226,32 @@
       <c r="AG43" s="4"/>
     </row>
     <row r="44" ht="15.0" customHeight="1">
-      <c r="A44" s="65"/>
+      <c r="A44" s="60"/>
       <c r="B44" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="90"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="87"/>
-      <c r="G44" s="91">
+      <c r="C44" s="85"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="86">
         <f>SUM(F45:F54)</f>
         <v>14.5</v>
       </c>
-      <c r="H44" s="87"/>
-      <c r="I44" s="91">
+      <c r="H44" s="82"/>
+      <c r="I44" s="86">
         <f>SUM(H45:H54)</f>
         <v>21</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="92"/>
-      <c r="N44" s="92"/>
-      <c r="O44" s="92"/>
-      <c r="P44" s="92"/>
-      <c r="Q44" s="92"/>
-      <c r="R44" s="110">
+      <c r="M44" s="87"/>
+      <c r="N44" s="87"/>
+      <c r="O44" s="87"/>
+      <c r="P44" s="87"/>
+      <c r="Q44" s="87"/>
+      <c r="R44" s="105">
         <f>SUM(M45:Q54)</f>
         <v>21</v>
       </c>
@@ -4087,36 +4272,36 @@
       <c r="AG44" s="4"/>
     </row>
     <row r="45" ht="16.5" customHeight="1">
-      <c r="A45" s="65"/>
-      <c r="B45" s="148"/>
-      <c r="C45" s="149" t="s">
+      <c r="A45" s="60"/>
+      <c r="B45" s="141"/>
+      <c r="C45" s="142" t="s">
         <v>71</v>
       </c>
-      <c r="D45" s="129" t="s">
+      <c r="D45" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="E45" s="130" t="s">
+      <c r="E45" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="F45" s="150">
+      <c r="F45" s="143">
         <v>1.0</v>
       </c>
-      <c r="G45" s="151"/>
-      <c r="H45" s="150">
+      <c r="G45" s="144"/>
+      <c r="H45" s="143">
         <v>1.0</v>
       </c>
-      <c r="I45" s="151"/>
+      <c r="I45" s="144"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="152"/>
-      <c r="N45" s="152"/>
-      <c r="O45" s="152"/>
-      <c r="P45" s="153">
+      <c r="M45" s="145"/>
+      <c r="N45" s="145"/>
+      <c r="O45" s="145"/>
+      <c r="P45" s="146">
         <v>1.0</v>
       </c>
-      <c r="Q45" s="152"/>
-      <c r="R45" s="154"/>
+      <c r="Q45" s="145"/>
+      <c r="R45" s="147"/>
       <c r="S45" s="4"/>
       <c r="T45" s="4"/>
       <c r="U45" s="4"/>
@@ -4134,36 +4319,36 @@
       <c r="AG45" s="4"/>
     </row>
     <row r="46" ht="15.0" customHeight="1">
-      <c r="A46" s="65"/>
-      <c r="B46" s="148"/>
-      <c r="C46" s="149" t="s">
+      <c r="A46" s="60"/>
+      <c r="B46" s="141"/>
+      <c r="C46" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="D46" s="129" t="s">
+      <c r="D46" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="E46" s="155" t="s">
+      <c r="E46" s="148" t="s">
         <v>74</v>
       </c>
-      <c r="F46" s="150">
+      <c r="F46" s="143">
         <v>0.5</v>
       </c>
-      <c r="G46" s="151"/>
-      <c r="H46" s="150">
+      <c r="G46" s="144"/>
+      <c r="H46" s="143">
         <v>1.5</v>
       </c>
-      <c r="I46" s="151"/>
+      <c r="I46" s="144"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="152"/>
-      <c r="N46" s="152"/>
-      <c r="O46" s="152"/>
-      <c r="P46" s="153">
+      <c r="M46" s="145"/>
+      <c r="N46" s="145"/>
+      <c r="O46" s="145"/>
+      <c r="P46" s="146">
         <v>1.5</v>
       </c>
-      <c r="Q46" s="152"/>
-      <c r="R46" s="154"/>
+      <c r="Q46" s="145"/>
+      <c r="R46" s="147"/>
       <c r="S46" s="4"/>
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
@@ -4181,36 +4366,36 @@
       <c r="AG46" s="4"/>
     </row>
     <row r="47" ht="15.0" customHeight="1">
-      <c r="A47" s="65"/>
-      <c r="B47" s="148"/>
-      <c r="C47" s="149" t="s">
+      <c r="A47" s="60"/>
+      <c r="B47" s="141"/>
+      <c r="C47" s="142" t="s">
         <v>75</v>
       </c>
-      <c r="D47" s="129" t="s">
+      <c r="D47" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="E47" s="155" t="s">
+      <c r="E47" s="148" t="s">
         <v>76</v>
       </c>
-      <c r="F47" s="156">
+      <c r="F47" s="143">
         <v>1.0</v>
       </c>
-      <c r="G47" s="151"/>
-      <c r="H47" s="156">
+      <c r="G47" s="144"/>
+      <c r="H47" s="143">
         <v>1.5</v>
       </c>
-      <c r="I47" s="151"/>
+      <c r="I47" s="144"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="152"/>
-      <c r="N47" s="152"/>
-      <c r="O47" s="152"/>
-      <c r="P47" s="152"/>
-      <c r="Q47" s="157">
+      <c r="M47" s="145"/>
+      <c r="N47" s="145"/>
+      <c r="O47" s="145"/>
+      <c r="P47" s="145"/>
+      <c r="Q47" s="146">
         <v>1.5</v>
       </c>
-      <c r="R47" s="154"/>
+      <c r="R47" s="147"/>
       <c r="S47" s="4"/>
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
@@ -4228,36 +4413,36 @@
       <c r="AG47" s="4"/>
     </row>
     <row r="48" ht="15.0" customHeight="1">
-      <c r="A48" s="65"/>
-      <c r="B48" s="148"/>
-      <c r="C48" s="149" t="s">
+      <c r="A48" s="60"/>
+      <c r="B48" s="141"/>
+      <c r="C48" s="142" t="s">
         <v>77</v>
       </c>
-      <c r="D48" s="129" t="s">
+      <c r="D48" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="E48" s="155" t="s">
+      <c r="E48" s="148" t="s">
         <v>78</v>
       </c>
-      <c r="F48" s="156">
+      <c r="F48" s="143">
         <v>2.0</v>
       </c>
-      <c r="G48" s="151"/>
-      <c r="H48" s="156">
+      <c r="G48" s="144"/>
+      <c r="H48" s="143">
         <v>2.0</v>
       </c>
-      <c r="I48" s="151"/>
+      <c r="I48" s="144"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="152"/>
-      <c r="N48" s="152"/>
-      <c r="O48" s="152"/>
-      <c r="P48" s="152"/>
-      <c r="Q48" s="157">
+      <c r="M48" s="145"/>
+      <c r="N48" s="145"/>
+      <c r="O48" s="145"/>
+      <c r="P48" s="145"/>
+      <c r="Q48" s="146">
         <v>2.0</v>
       </c>
-      <c r="R48" s="154"/>
+      <c r="R48" s="147"/>
       <c r="S48" s="4"/>
       <c r="T48" s="4"/>
       <c r="U48" s="4"/>
@@ -4275,36 +4460,36 @@
       <c r="AG48" s="4"/>
     </row>
     <row r="49" ht="30.75" customHeight="1">
-      <c r="A49" s="65"/>
-      <c r="B49" s="148"/>
-      <c r="C49" s="149" t="s">
+      <c r="A49" s="60"/>
+      <c r="B49" s="141"/>
+      <c r="C49" s="142" t="s">
         <v>79</v>
       </c>
-      <c r="D49" s="129" t="s">
+      <c r="D49" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="155" t="s">
+      <c r="E49" s="148" t="s">
         <v>80</v>
       </c>
-      <c r="F49" s="150">
+      <c r="F49" s="143">
         <v>1.0</v>
       </c>
-      <c r="G49" s="151"/>
-      <c r="H49" s="150">
+      <c r="G49" s="144"/>
+      <c r="H49" s="143">
         <v>2.0</v>
       </c>
-      <c r="I49" s="151"/>
+      <c r="I49" s="144"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="152"/>
-      <c r="N49" s="152"/>
-      <c r="O49" s="152"/>
-      <c r="P49" s="153">
+      <c r="M49" s="145"/>
+      <c r="N49" s="145"/>
+      <c r="O49" s="145"/>
+      <c r="P49" s="146">
         <v>2.0</v>
       </c>
-      <c r="Q49" s="152"/>
-      <c r="R49" s="154"/>
+      <c r="Q49" s="145"/>
+      <c r="R49" s="147"/>
       <c r="S49" s="4"/>
       <c r="T49" s="4"/>
       <c r="U49" s="4"/>
@@ -4322,36 +4507,36 @@
       <c r="AG49" s="4"/>
     </row>
     <row r="50" ht="15.0" customHeight="1">
-      <c r="A50" s="65"/>
-      <c r="B50" s="148"/>
-      <c r="C50" s="149" t="s">
+      <c r="A50" s="60"/>
+      <c r="B50" s="141"/>
+      <c r="C50" s="142" t="s">
         <v>81</v>
       </c>
-      <c r="D50" s="158" t="s">
+      <c r="D50" s="149" t="s">
         <v>36</v>
       </c>
-      <c r="E50" s="155" t="s">
+      <c r="E50" s="148" t="s">
         <v>62</v>
       </c>
-      <c r="F50" s="156">
+      <c r="F50" s="143">
         <v>3.0</v>
       </c>
-      <c r="G50" s="151"/>
-      <c r="H50" s="156">
+      <c r="G50" s="144"/>
+      <c r="H50" s="143">
         <v>3.0</v>
       </c>
-      <c r="I50" s="151"/>
+      <c r="I50" s="144"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="152"/>
-      <c r="N50" s="157">
+      <c r="M50" s="145"/>
+      <c r="N50" s="146">
         <v>3.0</v>
       </c>
-      <c r="O50" s="152"/>
-      <c r="P50" s="152"/>
-      <c r="Q50" s="152"/>
-      <c r="R50" s="154"/>
+      <c r="O50" s="145"/>
+      <c r="P50" s="145"/>
+      <c r="Q50" s="145"/>
+      <c r="R50" s="147"/>
       <c r="S50" s="4"/>
       <c r="T50" s="4"/>
       <c r="U50" s="4"/>
@@ -4369,36 +4554,36 @@
       <c r="AG50" s="4"/>
     </row>
     <row r="51" ht="31.5" customHeight="1">
-      <c r="A51" s="65"/>
-      <c r="B51" s="148"/>
-      <c r="C51" s="149" t="s">
+      <c r="A51" s="60"/>
+      <c r="B51" s="141"/>
+      <c r="C51" s="142" t="s">
         <v>82</v>
       </c>
-      <c r="D51" s="158" t="s">
+      <c r="D51" s="149" t="s">
         <v>36</v>
       </c>
-      <c r="E51" s="155" t="s">
+      <c r="E51" s="148" t="s">
         <v>62</v>
       </c>
-      <c r="F51" s="156">
+      <c r="F51" s="143">
         <v>3.0</v>
       </c>
-      <c r="G51" s="151"/>
-      <c r="H51" s="156">
+      <c r="G51" s="144"/>
+      <c r="H51" s="143">
         <v>5.0</v>
       </c>
-      <c r="I51" s="151"/>
+      <c r="I51" s="144"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="152"/>
-      <c r="N51" s="157">
+      <c r="M51" s="145"/>
+      <c r="N51" s="146">
         <v>5.0</v>
       </c>
-      <c r="O51" s="152"/>
-      <c r="P51" s="152"/>
-      <c r="Q51" s="152"/>
-      <c r="R51" s="154"/>
+      <c r="O51" s="145"/>
+      <c r="P51" s="145"/>
+      <c r="Q51" s="145"/>
+      <c r="R51" s="147"/>
       <c r="S51" s="4"/>
       <c r="T51" s="4"/>
       <c r="U51" s="4"/>
@@ -4416,36 +4601,36 @@
       <c r="AG51" s="4"/>
     </row>
     <row r="52" ht="32.25" customHeight="1">
-      <c r="A52" s="65"/>
-      <c r="B52" s="148"/>
-      <c r="C52" s="149" t="s">
+      <c r="A52" s="60"/>
+      <c r="B52" s="141"/>
+      <c r="C52" s="142" t="s">
         <v>83</v>
       </c>
-      <c r="D52" s="158" t="s">
+      <c r="D52" s="149" t="s">
         <v>36</v>
       </c>
-      <c r="E52" s="155" t="s">
+      <c r="E52" s="148" t="s">
         <v>62</v>
       </c>
-      <c r="F52" s="156">
+      <c r="F52" s="143">
         <v>3.0</v>
       </c>
-      <c r="G52" s="151"/>
-      <c r="H52" s="156">
+      <c r="G52" s="144"/>
+      <c r="H52" s="143">
         <v>5.0</v>
       </c>
-      <c r="I52" s="151"/>
+      <c r="I52" s="144"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
-      <c r="M52" s="152"/>
-      <c r="N52" s="157">
+      <c r="M52" s="145"/>
+      <c r="N52" s="146">
         <v>5.0</v>
       </c>
-      <c r="O52" s="152"/>
-      <c r="P52" s="152"/>
-      <c r="Q52" s="152"/>
-      <c r="R52" s="154"/>
+      <c r="O52" s="145"/>
+      <c r="P52" s="145"/>
+      <c r="Q52" s="145"/>
+      <c r="R52" s="147"/>
       <c r="S52" s="4"/>
       <c r="T52" s="4"/>
       <c r="U52" s="4"/>
@@ -4463,24 +4648,24 @@
       <c r="AG52" s="4"/>
     </row>
     <row r="53" ht="15.0" customHeight="1">
-      <c r="A53" s="65"/>
-      <c r="B53" s="148"/>
-      <c r="C53" s="159"/>
-      <c r="D53" s="160"/>
-      <c r="E53" s="161"/>
-      <c r="F53" s="162"/>
-      <c r="G53" s="151"/>
-      <c r="H53" s="162"/>
-      <c r="I53" s="151"/>
+      <c r="A53" s="60"/>
+      <c r="B53" s="141"/>
+      <c r="C53" s="150"/>
+      <c r="D53" s="151"/>
+      <c r="E53" s="152"/>
+      <c r="F53" s="153"/>
+      <c r="G53" s="144"/>
+      <c r="H53" s="153"/>
+      <c r="I53" s="144"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
-      <c r="M53" s="152"/>
-      <c r="N53" s="152"/>
-      <c r="O53" s="152"/>
-      <c r="P53" s="152"/>
-      <c r="Q53" s="152"/>
-      <c r="R53" s="154"/>
+      <c r="M53" s="145"/>
+      <c r="N53" s="145"/>
+      <c r="O53" s="145"/>
+      <c r="P53" s="145"/>
+      <c r="Q53" s="145"/>
+      <c r="R53" s="147"/>
       <c r="S53" s="4"/>
       <c r="T53" s="4"/>
       <c r="U53" s="4"/>
@@ -4498,24 +4683,24 @@
       <c r="AG53" s="4"/>
     </row>
     <row r="54" ht="15.0" customHeight="1">
-      <c r="A54" s="65"/>
-      <c r="B54" s="84"/>
-      <c r="C54" s="163"/>
-      <c r="D54" s="164"/>
-      <c r="E54" s="165"/>
-      <c r="F54" s="166"/>
-      <c r="G54" s="167"/>
-      <c r="H54" s="166"/>
-      <c r="I54" s="167"/>
+      <c r="A54" s="60"/>
+      <c r="B54" s="79"/>
+      <c r="C54" s="154"/>
+      <c r="D54" s="155"/>
+      <c r="E54" s="156"/>
+      <c r="F54" s="157"/>
+      <c r="G54" s="158"/>
+      <c r="H54" s="157"/>
+      <c r="I54" s="158"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="168"/>
-      <c r="N54" s="168"/>
-      <c r="O54" s="168"/>
-      <c r="P54" s="168"/>
-      <c r="Q54" s="168"/>
-      <c r="R54" s="169"/>
+      <c r="M54" s="159"/>
+      <c r="N54" s="159"/>
+      <c r="O54" s="159"/>
+      <c r="P54" s="159"/>
+      <c r="Q54" s="159"/>
+      <c r="R54" s="160"/>
       <c r="S54" s="4"/>
       <c r="T54" s="4"/>
       <c r="U54" s="4"/>
@@ -4533,32 +4718,32 @@
       <c r="AG54" s="4"/>
     </row>
     <row r="55" ht="15.0" customHeight="1">
-      <c r="A55" s="65"/>
-      <c r="B55" s="170" t="s">
+      <c r="A55" s="60"/>
+      <c r="B55" s="161" t="s">
         <v>40</v>
       </c>
-      <c r="C55" s="171"/>
-      <c r="D55" s="172"/>
-      <c r="E55" s="173"/>
-      <c r="F55" s="174"/>
-      <c r="G55" s="175">
+      <c r="C55" s="162"/>
+      <c r="D55" s="163"/>
+      <c r="E55" s="164"/>
+      <c r="F55" s="165"/>
+      <c r="G55" s="166">
         <f>SUM(F56:F57)</f>
         <v>1</v>
       </c>
-      <c r="H55" s="174"/>
-      <c r="I55" s="175">
+      <c r="H55" s="165"/>
+      <c r="I55" s="166">
         <f>SUM(H56:H57)</f>
         <v>0.5</v>
       </c>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
-      <c r="M55" s="176"/>
-      <c r="N55" s="176"/>
-      <c r="O55" s="176"/>
-      <c r="P55" s="176"/>
-      <c r="Q55" s="176"/>
-      <c r="R55" s="177">
+      <c r="M55" s="167"/>
+      <c r="N55" s="167"/>
+      <c r="O55" s="167"/>
+      <c r="P55" s="167"/>
+      <c r="Q55" s="167"/>
+      <c r="R55" s="168">
         <f>SUM(M56:Q57)</f>
         <v>2.5</v>
       </c>
@@ -4579,44 +4764,44 @@
       <c r="AG55" s="4"/>
     </row>
     <row r="56" ht="30.75" customHeight="1">
-      <c r="A56" s="126"/>
-      <c r="B56" s="139"/>
-      <c r="C56" s="178" t="s">
+      <c r="A56" s="121"/>
+      <c r="B56" s="132"/>
+      <c r="C56" s="169" t="s">
         <v>84</v>
       </c>
-      <c r="D56" s="179" t="s">
+      <c r="D56" s="170" t="s">
         <v>21</v>
       </c>
-      <c r="E56" s="180" t="s">
+      <c r="E56" s="171" t="s">
         <v>22</v>
       </c>
-      <c r="F56" s="181">
+      <c r="F56" s="172">
         <v>1.0</v>
       </c>
-      <c r="G56" s="144"/>
-      <c r="H56" s="181">
+      <c r="G56" s="137"/>
+      <c r="H56" s="172">
         <v>0.5</v>
       </c>
-      <c r="I56" s="145"/>
+      <c r="I56" s="138"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="182">
+      <c r="M56" s="173">
         <v>0.5</v>
       </c>
-      <c r="N56" s="182">
+      <c r="N56" s="173">
         <v>0.5</v>
       </c>
-      <c r="O56" s="182">
+      <c r="O56" s="173">
         <v>0.5</v>
       </c>
-      <c r="P56" s="182">
+      <c r="P56" s="173">
         <v>0.5</v>
       </c>
-      <c r="Q56" s="182">
+      <c r="Q56" s="173">
         <v>0.5</v>
       </c>
-      <c r="R56" s="147"/>
+      <c r="R56" s="140"/>
       <c r="S56" s="4"/>
       <c r="T56" s="4"/>
       <c r="U56" s="4"/>
@@ -4634,24 +4819,24 @@
       <c r="AG56" s="4"/>
     </row>
     <row r="57" ht="15.0" customHeight="1">
-      <c r="A57" s="126"/>
-      <c r="B57" s="139"/>
-      <c r="C57" s="140"/>
-      <c r="D57" s="141"/>
-      <c r="E57" s="142"/>
-      <c r="F57" s="183"/>
-      <c r="G57" s="144"/>
-      <c r="H57" s="183"/>
-      <c r="I57" s="145"/>
+      <c r="A57" s="121"/>
+      <c r="B57" s="132"/>
+      <c r="C57" s="133"/>
+      <c r="D57" s="134"/>
+      <c r="E57" s="135"/>
+      <c r="F57" s="174"/>
+      <c r="G57" s="137"/>
+      <c r="H57" s="174"/>
+      <c r="I57" s="138"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
-      <c r="M57" s="146"/>
-      <c r="N57" s="146"/>
-      <c r="O57" s="146"/>
-      <c r="P57" s="146"/>
-      <c r="Q57" s="146"/>
-      <c r="R57" s="147"/>
+      <c r="M57" s="139"/>
+      <c r="N57" s="139"/>
+      <c r="O57" s="139"/>
+      <c r="P57" s="139"/>
+      <c r="Q57" s="139"/>
+      <c r="R57" s="140"/>
       <c r="S57" s="4"/>
       <c r="T57" s="4"/>
       <c r="U57" s="4"/>
@@ -4669,88 +4854,72 @@
       <c r="AG57" s="4"/>
     </row>
     <row r="58" ht="12.75" customHeight="1">
-      <c r="A58" s="184" t="s">
+      <c r="A58" s="175" t="s">
         <v>85</v>
       </c>
-      <c r="B58" s="184"/>
-      <c r="C58" s="185"/>
-      <c r="D58" s="185"/>
-      <c r="E58" s="186"/>
-      <c r="F58" s="187">
-        <f t="shared" ref="F58:G58" si="1">SUM(F5:F57)</f>
-        <v>56.5</v>
-      </c>
-      <c r="G58" s="188">
-        <f t="shared" si="1"/>
-        <v>56.5</v>
-      </c>
-      <c r="H58" s="189">
-        <f>SUM(M58:P58)</f>
-        <v>136.5</v>
-      </c>
-      <c r="I58" s="188">
-        <f>SUM(I5:I57)</f>
-        <v>84.8</v>
-      </c>
-      <c r="J58" s="190"/>
-      <c r="K58" s="190"/>
-      <c r="L58" s="190"/>
-      <c r="M58" s="189">
-        <f t="shared" ref="M58:P58" si="2">SUM(M5:M57)</f>
-        <v>29.75</v>
-      </c>
-      <c r="N58" s="189">
-        <f t="shared" si="2"/>
-        <v>42.75</v>
-      </c>
-      <c r="O58" s="189">
-        <f t="shared" si="2"/>
-        <v>31.5</v>
-      </c>
-      <c r="P58" s="189">
-        <f t="shared" si="2"/>
-        <v>32.5</v>
-      </c>
-      <c r="Q58" s="189"/>
-      <c r="R58" s="189">
-        <f>SUM(M58:P58)</f>
-        <v>136.5</v>
-      </c>
-      <c r="S58" s="190"/>
-      <c r="T58" s="190"/>
-      <c r="U58" s="190"/>
-      <c r="V58" s="190"/>
-      <c r="W58" s="190"/>
-      <c r="X58" s="190"/>
-      <c r="Y58" s="190"/>
-      <c r="Z58" s="190"/>
-      <c r="AA58" s="190"/>
-      <c r="AB58" s="190"/>
-      <c r="AC58" s="190"/>
-      <c r="AD58" s="190"/>
-      <c r="AE58" s="190"/>
-      <c r="AF58" s="190"/>
-      <c r="AG58" s="190"/>
+      <c r="B58" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="120"/>
+      <c r="D58" s="62"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="86">
+        <f>SUM(F59)</f>
+        <v>0</v>
+      </c>
+      <c r="H58" s="64"/>
+      <c r="I58" s="86">
+        <f>SUM(H59)</f>
+        <v>0</v>
+      </c>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="87"/>
+      <c r="N58" s="87"/>
+      <c r="O58" s="87"/>
+      <c r="P58" s="87"/>
+      <c r="Q58" s="87"/>
+      <c r="R58" s="105">
+        <f>SUM(M59:Q59)</f>
+        <v>0</v>
+      </c>
+      <c r="S58" s="176"/>
+      <c r="T58" s="176"/>
+      <c r="U58" s="176"/>
+      <c r="V58" s="176"/>
+      <c r="W58" s="176"/>
+      <c r="X58" s="176"/>
+      <c r="Y58" s="176"/>
+      <c r="Z58" s="176"/>
+      <c r="AA58" s="176"/>
+      <c r="AB58" s="176"/>
+      <c r="AC58" s="176"/>
+      <c r="AD58" s="176"/>
+      <c r="AE58" s="176"/>
+      <c r="AF58" s="176"/>
+      <c r="AG58" s="176"/>
     </row>
     <row r="59" ht="12.75" customHeight="1">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="191"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
+      <c r="A59" s="177"/>
+      <c r="B59" s="177"/>
+      <c r="C59" s="178"/>
+      <c r="D59" s="179"/>
+      <c r="E59" s="177"/>
+      <c r="F59" s="178"/>
+      <c r="G59" s="177"/>
+      <c r="H59" s="177"/>
+      <c r="I59" s="177"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="8"/>
-      <c r="M59" s="192"/>
-      <c r="N59" s="192"/>
-      <c r="O59" s="192"/>
-      <c r="P59" s="192"/>
-      <c r="Q59" s="192"/>
-      <c r="R59" s="193"/>
+      <c r="M59" s="180"/>
+      <c r="N59" s="180"/>
+      <c r="O59" s="180"/>
+      <c r="P59" s="180"/>
+      <c r="Q59" s="180"/>
+      <c r="R59" s="181"/>
       <c r="S59" s="8"/>
       <c r="T59" s="8"/>
       <c r="U59" s="8"/>
@@ -4767,95 +4936,130 @@
       <c r="AF59" s="8"/>
       <c r="AG59" s="8"/>
     </row>
-    <row r="60" ht="12.75" customHeight="1">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="191"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="8"/>
-      <c r="M60" s="192"/>
-      <c r="N60" s="192"/>
-      <c r="O60" s="192"/>
-      <c r="P60" s="192"/>
-      <c r="Q60" s="192"/>
-      <c r="R60" s="193"/>
-      <c r="S60" s="8"/>
-      <c r="T60" s="8"/>
-      <c r="U60" s="8"/>
-      <c r="V60" s="8"/>
-      <c r="W60" s="8"/>
-      <c r="X60" s="8"/>
-      <c r="Y60" s="8"/>
-      <c r="Z60" s="8"/>
-      <c r="AA60" s="8"/>
-      <c r="AB60" s="8"/>
-      <c r="AC60" s="8"/>
-      <c r="AD60" s="8"/>
-      <c r="AE60" s="8"/>
-      <c r="AF60" s="8"/>
-      <c r="AG60" s="8"/>
-    </row>
-    <row r="61" ht="12.75" customHeight="1">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="191"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="192"/>
-      <c r="N61" s="192"/>
-      <c r="O61" s="192"/>
-      <c r="P61" s="192"/>
-      <c r="Q61" s="192"/>
-      <c r="R61" s="193"/>
-      <c r="S61" s="8"/>
-      <c r="T61" s="8"/>
-      <c r="U61" s="8"/>
-      <c r="V61" s="8"/>
-      <c r="W61" s="8"/>
-      <c r="X61" s="8"/>
-      <c r="Y61" s="8"/>
-      <c r="Z61" s="8"/>
-      <c r="AA61" s="8"/>
-      <c r="AB61" s="8"/>
-      <c r="AC61" s="8"/>
-      <c r="AD61" s="8"/>
-      <c r="AE61" s="8"/>
-      <c r="AF61" s="8"/>
-      <c r="AG61" s="8"/>
+    <row r="60">
+      <c r="A60" s="182"/>
+      <c r="B60" s="183" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60" s="184"/>
+      <c r="D60" s="62"/>
+      <c r="E60" s="185"/>
+      <c r="F60" s="82"/>
+      <c r="G60" s="86">
+        <f>SUM(F61:F68)</f>
+        <v>16</v>
+      </c>
+      <c r="H60" s="82"/>
+      <c r="I60" s="86">
+        <f>SUM(H61:H66)</f>
+        <v>22.5</v>
+      </c>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="186"/>
+      <c r="N60" s="186"/>
+      <c r="O60" s="186"/>
+      <c r="P60" s="186"/>
+      <c r="Q60" s="186"/>
+      <c r="R60" s="105">
+        <f>SUM(M61:Q66)</f>
+        <v>22.5</v>
+      </c>
+      <c r="S60" s="4"/>
+      <c r="T60" s="4"/>
+      <c r="U60" s="4"/>
+      <c r="V60" s="4"/>
+      <c r="W60" s="4"/>
+      <c r="X60" s="4"/>
+      <c r="Y60" s="4"/>
+      <c r="Z60" s="4"/>
+      <c r="AA60" s="4"/>
+      <c r="AB60" s="4"/>
+      <c r="AC60" s="4"/>
+      <c r="AD60" s="4"/>
+      <c r="AE60" s="4"/>
+      <c r="AF60" s="4"/>
+      <c r="AG60" s="4"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="182"/>
+      <c r="B61" s="182"/>
+      <c r="C61" s="187" t="s">
+        <v>86</v>
+      </c>
+      <c r="D61" s="188" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" s="189" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61" s="190">
+        <v>4.0</v>
+      </c>
+      <c r="G61" s="191"/>
+      <c r="H61" s="190">
+        <v>8.0</v>
+      </c>
+      <c r="I61" s="192"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="193"/>
+      <c r="N61" s="193"/>
+      <c r="O61" s="194">
+        <v>8.0</v>
+      </c>
+      <c r="P61" s="193"/>
+      <c r="Q61" s="193"/>
+      <c r="R61" s="191"/>
+      <c r="S61" s="4"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="4"/>
+      <c r="W61" s="4"/>
+      <c r="X61" s="4"/>
+      <c r="Y61" s="4"/>
+      <c r="Z61" s="4"/>
+      <c r="AA61" s="4"/>
+      <c r="AB61" s="4"/>
+      <c r="AC61" s="4"/>
+      <c r="AD61" s="4"/>
+      <c r="AE61" s="4"/>
+      <c r="AF61" s="4"/>
+      <c r="AG61" s="4"/>
     </row>
     <row r="62">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
+      <c r="A62" s="182"/>
+      <c r="B62" s="182"/>
+      <c r="C62" s="187" t="s">
+        <v>87</v>
+      </c>
+      <c r="D62" s="188" t="s">
+        <v>36</v>
+      </c>
+      <c r="E62" s="189" t="s">
+        <v>2</v>
+      </c>
+      <c r="F62" s="190">
+        <v>5.0</v>
+      </c>
+      <c r="G62" s="191"/>
+      <c r="H62" s="190">
+        <v>5.0</v>
+      </c>
+      <c r="I62" s="192"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="6"/>
-      <c r="O62" s="6"/>
-      <c r="P62" s="6"/>
-      <c r="Q62" s="6"/>
-      <c r="R62" s="5"/>
+      <c r="M62" s="193"/>
+      <c r="N62" s="194">
+        <v>5.0</v>
+      </c>
+      <c r="O62" s="193"/>
+      <c r="P62" s="193"/>
+      <c r="Q62" s="193"/>
+      <c r="R62" s="191"/>
       <c r="S62" s="4"/>
       <c r="T62" s="4"/>
       <c r="U62" s="4"/>
@@ -4873,24 +5077,33 @@
       <c r="AG62" s="4"/>
     </row>
     <row r="63">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="6"/>
-      <c r="N63" s="6"/>
-      <c r="O63" s="6"/>
-      <c r="P63" s="6"/>
-      <c r="Q63" s="6"/>
-      <c r="R63" s="5"/>
+      <c r="A63" s="195"/>
+      <c r="B63" s="196"/>
+      <c r="C63" s="197" t="s">
+        <v>88</v>
+      </c>
+      <c r="D63" s="188" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" s="198" t="s">
+        <v>1</v>
+      </c>
+      <c r="F63" s="190">
+        <v>2.0</v>
+      </c>
+      <c r="G63" s="196"/>
+      <c r="H63" s="190">
+        <v>2.0</v>
+      </c>
+      <c r="I63" s="196"/>
+      <c r="M63" s="194">
+        <v>2.0</v>
+      </c>
+      <c r="N63" s="195"/>
+      <c r="O63" s="195"/>
+      <c r="P63" s="195"/>
+      <c r="Q63" s="195"/>
+      <c r="R63" s="196"/>
       <c r="S63" s="4"/>
       <c r="T63" s="4"/>
       <c r="U63" s="4"/>
@@ -4908,24 +5121,36 @@
       <c r="AG63" s="4"/>
     </row>
     <row r="64">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
+      <c r="A64" s="182"/>
+      <c r="B64" s="182"/>
+      <c r="C64" s="187" t="s">
+        <v>89</v>
+      </c>
+      <c r="D64" s="188" t="s">
+        <v>52</v>
+      </c>
+      <c r="E64" s="199" t="s">
+        <v>90</v>
+      </c>
+      <c r="F64" s="190">
+        <v>2.0</v>
+      </c>
+      <c r="G64" s="191"/>
+      <c r="H64" s="190">
+        <v>4.0</v>
+      </c>
+      <c r="I64" s="192"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
-      <c r="M64" s="6"/>
-      <c r="N64" s="6"/>
-      <c r="O64" s="6"/>
-      <c r="P64" s="6"/>
-      <c r="Q64" s="6"/>
-      <c r="R64" s="5"/>
+      <c r="M64" s="193"/>
+      <c r="N64" s="193"/>
+      <c r="O64" s="193"/>
+      <c r="P64" s="194">
+        <v>4.0</v>
+      </c>
+      <c r="Q64" s="193"/>
+      <c r="R64" s="191"/>
       <c r="S64" s="4"/>
       <c r="T64" s="4"/>
       <c r="U64" s="4"/>
@@ -4943,24 +5168,36 @@
       <c r="AG64" s="4"/>
     </row>
     <row r="65">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
+      <c r="A65" s="200"/>
+      <c r="B65" s="200"/>
+      <c r="C65" s="187" t="s">
+        <v>91</v>
+      </c>
+      <c r="D65" s="188" t="s">
+        <v>52</v>
+      </c>
+      <c r="E65" s="199" t="s">
+        <v>92</v>
+      </c>
+      <c r="F65" s="190">
+        <v>2.0</v>
+      </c>
+      <c r="G65" s="201"/>
+      <c r="H65" s="190">
+        <v>3.0</v>
+      </c>
+      <c r="I65" s="202"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
-      <c r="M65" s="6"/>
-      <c r="N65" s="6"/>
-      <c r="O65" s="6"/>
-      <c r="P65" s="6"/>
-      <c r="Q65" s="6"/>
-      <c r="R65" s="5"/>
+      <c r="M65" s="203"/>
+      <c r="N65" s="203"/>
+      <c r="O65" s="203"/>
+      <c r="P65" s="204"/>
+      <c r="Q65" s="194">
+        <v>3.0</v>
+      </c>
+      <c r="R65" s="201"/>
       <c r="S65" s="4"/>
       <c r="T65" s="4"/>
       <c r="U65" s="4"/>
@@ -4978,24 +5215,36 @@
       <c r="AG65" s="4"/>
     </row>
     <row r="66">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
+      <c r="A66" s="182"/>
+      <c r="B66" s="182"/>
+      <c r="C66" s="187" t="s">
+        <v>93</v>
+      </c>
+      <c r="D66" s="188" t="s">
+        <v>52</v>
+      </c>
+      <c r="E66" s="199" t="s">
+        <v>94</v>
+      </c>
+      <c r="F66" s="190">
+        <v>1.0</v>
+      </c>
+      <c r="G66" s="191"/>
+      <c r="H66" s="190">
+        <v>0.5</v>
+      </c>
+      <c r="I66" s="192"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
-      <c r="Q66" s="6"/>
-      <c r="R66" s="5"/>
+      <c r="M66" s="193"/>
+      <c r="N66" s="193"/>
+      <c r="O66" s="193"/>
+      <c r="P66" s="194">
+        <v>0.5</v>
+      </c>
+      <c r="Q66" s="193"/>
+      <c r="R66" s="191"/>
       <c r="S66" s="4"/>
       <c r="T66" s="4"/>
       <c r="U66" s="4"/>
@@ -5013,24 +5262,35 @@
       <c r="AG66" s="4"/>
     </row>
     <row r="67">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
+      <c r="A67" s="182"/>
+      <c r="B67" s="205" t="s">
+        <v>40</v>
+      </c>
+      <c r="C67" s="206"/>
+      <c r="D67" s="163"/>
+      <c r="E67" s="207"/>
+      <c r="F67" s="165"/>
+      <c r="G67" s="166">
+        <f>SUM(F68)</f>
+        <v>0</v>
+      </c>
+      <c r="H67" s="165"/>
+      <c r="I67" s="166">
+        <f>SUM(H68)</f>
+        <v>0</v>
+      </c>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="6"/>
-      <c r="N67" s="6"/>
-      <c r="O67" s="6"/>
-      <c r="P67" s="6"/>
-      <c r="Q67" s="6"/>
-      <c r="R67" s="5"/>
+      <c r="M67" s="208"/>
+      <c r="N67" s="208"/>
+      <c r="O67" s="208"/>
+      <c r="P67" s="208"/>
+      <c r="Q67" s="208"/>
+      <c r="R67" s="209">
+        <f>SUM(M68:Q68)</f>
+        <v>0</v>
+      </c>
       <c r="S67" s="4"/>
       <c r="T67" s="4"/>
       <c r="U67" s="4"/>
@@ -5048,24 +5308,24 @@
       <c r="AG67" s="4"/>
     </row>
     <row r="68">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
+      <c r="A68" s="182"/>
+      <c r="B68" s="182"/>
+      <c r="C68" s="210"/>
+      <c r="D68" s="211"/>
+      <c r="E68" s="192"/>
+      <c r="F68" s="192"/>
+      <c r="G68" s="191"/>
+      <c r="H68" s="192"/>
+      <c r="I68" s="192"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
-      <c r="M68" s="6"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="6"/>
-      <c r="P68" s="6"/>
-      <c r="Q68" s="6"/>
-      <c r="R68" s="5"/>
+      <c r="M68" s="212"/>
+      <c r="N68" s="212"/>
+      <c r="O68" s="212"/>
+      <c r="P68" s="212"/>
+      <c r="Q68" s="212"/>
+      <c r="R68" s="191"/>
       <c r="S68" s="4"/>
       <c r="T68" s="4"/>
       <c r="U68" s="4"/>
@@ -5083,24 +5343,53 @@
       <c r="AG68" s="4"/>
     </row>
     <row r="69">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="6"/>
-      <c r="N69" s="6"/>
-      <c r="O69" s="6"/>
-      <c r="P69" s="6"/>
-      <c r="Q69" s="6"/>
-      <c r="R69" s="5"/>
+      <c r="A69" s="213" t="s">
+        <v>95</v>
+      </c>
+      <c r="B69" s="214"/>
+      <c r="C69" s="215"/>
+      <c r="D69" s="215"/>
+      <c r="E69" s="216"/>
+      <c r="F69" s="217">
+        <f t="shared" ref="F69:G69" si="1">SUM(F5:F68)</f>
+        <v>72.5</v>
+      </c>
+      <c r="G69" s="218">
+        <f t="shared" si="1"/>
+        <v>72.5</v>
+      </c>
+      <c r="H69" s="219">
+        <f>SUM(M69:P69)</f>
+        <v>156</v>
+      </c>
+      <c r="I69" s="218">
+        <f>SUM(I5:I68)</f>
+        <v>107.3</v>
+      </c>
+      <c r="J69" s="220"/>
+      <c r="K69" s="220"/>
+      <c r="L69" s="220"/>
+      <c r="M69" s="219">
+        <f t="shared" ref="M69:P69" si="2">SUM(M5:M68)</f>
+        <v>31.75</v>
+      </c>
+      <c r="N69" s="219">
+        <f t="shared" si="2"/>
+        <v>47.75</v>
+      </c>
+      <c r="O69" s="219">
+        <f t="shared" si="2"/>
+        <v>39.5</v>
+      </c>
+      <c r="P69" s="219">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="Q69" s="219"/>
+      <c r="R69" s="219">
+        <f>SUM(M69:P69)</f>
+        <v>156</v>
+      </c>
       <c r="S69" s="4"/>
       <c r="T69" s="4"/>
       <c r="U69" s="4"/>
@@ -37211,251 +37500,6 @@
       <c r="AE986" s="4"/>
       <c r="AF986" s="4"/>
       <c r="AG986" s="4"/>
-    </row>
-    <row r="987">
-      <c r="A987" s="1"/>
-      <c r="B987" s="1"/>
-      <c r="C987" s="2"/>
-      <c r="D987" s="3"/>
-      <c r="E987" s="4"/>
-      <c r="F987" s="4"/>
-      <c r="G987" s="5"/>
-      <c r="H987" s="4"/>
-      <c r="I987" s="4"/>
-      <c r="J987" s="4"/>
-      <c r="K987" s="4"/>
-      <c r="L987" s="4"/>
-      <c r="M987" s="6"/>
-      <c r="N987" s="6"/>
-      <c r="O987" s="6"/>
-      <c r="P987" s="6"/>
-      <c r="Q987" s="6"/>
-      <c r="R987" s="5"/>
-      <c r="S987" s="4"/>
-      <c r="T987" s="4"/>
-      <c r="U987" s="4"/>
-      <c r="V987" s="4"/>
-      <c r="W987" s="4"/>
-      <c r="X987" s="4"/>
-      <c r="Y987" s="4"/>
-      <c r="Z987" s="4"/>
-      <c r="AA987" s="4"/>
-      <c r="AB987" s="4"/>
-      <c r="AC987" s="4"/>
-      <c r="AD987" s="4"/>
-      <c r="AE987" s="4"/>
-      <c r="AF987" s="4"/>
-      <c r="AG987" s="4"/>
-    </row>
-    <row r="988">
-      <c r="A988" s="1"/>
-      <c r="B988" s="1"/>
-      <c r="C988" s="2"/>
-      <c r="D988" s="3"/>
-      <c r="E988" s="4"/>
-      <c r="F988" s="4"/>
-      <c r="G988" s="5"/>
-      <c r="H988" s="4"/>
-      <c r="I988" s="4"/>
-      <c r="J988" s="4"/>
-      <c r="K988" s="4"/>
-      <c r="L988" s="4"/>
-      <c r="M988" s="6"/>
-      <c r="N988" s="6"/>
-      <c r="O988" s="6"/>
-      <c r="P988" s="6"/>
-      <c r="Q988" s="6"/>
-      <c r="R988" s="5"/>
-      <c r="S988" s="4"/>
-      <c r="T988" s="4"/>
-      <c r="U988" s="4"/>
-      <c r="V988" s="4"/>
-      <c r="W988" s="4"/>
-      <c r="X988" s="4"/>
-      <c r="Y988" s="4"/>
-      <c r="Z988" s="4"/>
-      <c r="AA988" s="4"/>
-      <c r="AB988" s="4"/>
-      <c r="AC988" s="4"/>
-      <c r="AD988" s="4"/>
-      <c r="AE988" s="4"/>
-      <c r="AF988" s="4"/>
-      <c r="AG988" s="4"/>
-    </row>
-    <row r="989">
-      <c r="A989" s="1"/>
-      <c r="B989" s="1"/>
-      <c r="C989" s="2"/>
-      <c r="D989" s="3"/>
-      <c r="E989" s="4"/>
-      <c r="F989" s="4"/>
-      <c r="G989" s="5"/>
-      <c r="H989" s="4"/>
-      <c r="I989" s="4"/>
-      <c r="J989" s="4"/>
-      <c r="K989" s="4"/>
-      <c r="L989" s="4"/>
-      <c r="M989" s="6"/>
-      <c r="N989" s="6"/>
-      <c r="O989" s="6"/>
-      <c r="P989" s="6"/>
-      <c r="Q989" s="6"/>
-      <c r="R989" s="5"/>
-      <c r="S989" s="4"/>
-      <c r="T989" s="4"/>
-      <c r="U989" s="4"/>
-      <c r="V989" s="4"/>
-      <c r="W989" s="4"/>
-      <c r="X989" s="4"/>
-      <c r="Y989" s="4"/>
-      <c r="Z989" s="4"/>
-      <c r="AA989" s="4"/>
-      <c r="AB989" s="4"/>
-      <c r="AC989" s="4"/>
-      <c r="AD989" s="4"/>
-      <c r="AE989" s="4"/>
-      <c r="AF989" s="4"/>
-      <c r="AG989" s="4"/>
-    </row>
-    <row r="990">
-      <c r="A990" s="1"/>
-      <c r="B990" s="1"/>
-      <c r="C990" s="2"/>
-      <c r="D990" s="3"/>
-      <c r="E990" s="4"/>
-      <c r="F990" s="4"/>
-      <c r="G990" s="5"/>
-      <c r="H990" s="4"/>
-      <c r="I990" s="4"/>
-      <c r="J990" s="4"/>
-      <c r="K990" s="4"/>
-      <c r="L990" s="4"/>
-      <c r="M990" s="6"/>
-      <c r="N990" s="6"/>
-      <c r="O990" s="6"/>
-      <c r="P990" s="6"/>
-      <c r="Q990" s="6"/>
-      <c r="R990" s="5"/>
-      <c r="S990" s="4"/>
-      <c r="T990" s="4"/>
-      <c r="U990" s="4"/>
-      <c r="V990" s="4"/>
-      <c r="W990" s="4"/>
-      <c r="X990" s="4"/>
-      <c r="Y990" s="4"/>
-      <c r="Z990" s="4"/>
-      <c r="AA990" s="4"/>
-      <c r="AB990" s="4"/>
-      <c r="AC990" s="4"/>
-      <c r="AD990" s="4"/>
-      <c r="AE990" s="4"/>
-      <c r="AF990" s="4"/>
-      <c r="AG990" s="4"/>
-    </row>
-    <row r="991">
-      <c r="A991" s="1"/>
-      <c r="B991" s="1"/>
-      <c r="C991" s="2"/>
-      <c r="D991" s="3"/>
-      <c r="E991" s="4"/>
-      <c r="F991" s="4"/>
-      <c r="G991" s="5"/>
-      <c r="H991" s="4"/>
-      <c r="I991" s="4"/>
-      <c r="J991" s="4"/>
-      <c r="K991" s="4"/>
-      <c r="L991" s="4"/>
-      <c r="M991" s="6"/>
-      <c r="N991" s="6"/>
-      <c r="O991" s="6"/>
-      <c r="P991" s="6"/>
-      <c r="Q991" s="6"/>
-      <c r="R991" s="5"/>
-      <c r="S991" s="4"/>
-      <c r="T991" s="4"/>
-      <c r="U991" s="4"/>
-      <c r="V991" s="4"/>
-      <c r="W991" s="4"/>
-      <c r="X991" s="4"/>
-      <c r="Y991" s="4"/>
-      <c r="Z991" s="4"/>
-      <c r="AA991" s="4"/>
-      <c r="AB991" s="4"/>
-      <c r="AC991" s="4"/>
-      <c r="AD991" s="4"/>
-      <c r="AE991" s="4"/>
-      <c r="AF991" s="4"/>
-      <c r="AG991" s="4"/>
-    </row>
-    <row r="992">
-      <c r="A992" s="1"/>
-      <c r="B992" s="1"/>
-      <c r="C992" s="2"/>
-      <c r="D992" s="3"/>
-      <c r="E992" s="4"/>
-      <c r="F992" s="4"/>
-      <c r="G992" s="5"/>
-      <c r="H992" s="4"/>
-      <c r="I992" s="4"/>
-      <c r="J992" s="4"/>
-      <c r="K992" s="4"/>
-      <c r="L992" s="4"/>
-      <c r="M992" s="6"/>
-      <c r="N992" s="6"/>
-      <c r="O992" s="6"/>
-      <c r="P992" s="6"/>
-      <c r="Q992" s="6"/>
-      <c r="R992" s="5"/>
-      <c r="S992" s="4"/>
-      <c r="T992" s="4"/>
-      <c r="U992" s="4"/>
-      <c r="V992" s="4"/>
-      <c r="W992" s="4"/>
-      <c r="X992" s="4"/>
-      <c r="Y992" s="4"/>
-      <c r="Z992" s="4"/>
-      <c r="AA992" s="4"/>
-      <c r="AB992" s="4"/>
-      <c r="AC992" s="4"/>
-      <c r="AD992" s="4"/>
-      <c r="AE992" s="4"/>
-      <c r="AF992" s="4"/>
-      <c r="AG992" s="4"/>
-    </row>
-    <row r="993">
-      <c r="A993" s="1"/>
-      <c r="B993" s="1"/>
-      <c r="C993" s="2"/>
-      <c r="D993" s="3"/>
-      <c r="E993" s="4"/>
-      <c r="F993" s="4"/>
-      <c r="G993" s="5"/>
-      <c r="H993" s="4"/>
-      <c r="I993" s="4"/>
-      <c r="J993" s="4"/>
-      <c r="K993" s="4"/>
-      <c r="L993" s="4"/>
-      <c r="M993" s="6"/>
-      <c r="N993" s="6"/>
-      <c r="O993" s="6"/>
-      <c r="P993" s="6"/>
-      <c r="Q993" s="6"/>
-      <c r="R993" s="5"/>
-      <c r="S993" s="4"/>
-      <c r="T993" s="4"/>
-      <c r="U993" s="4"/>
-      <c r="V993" s="4"/>
-      <c r="W993" s="4"/>
-      <c r="X993" s="4"/>
-      <c r="Y993" s="4"/>
-      <c r="Z993" s="4"/>
-      <c r="AA993" s="4"/>
-      <c r="AB993" s="4"/>
-      <c r="AC993" s="4"/>
-      <c r="AD993" s="4"/>
-      <c r="AE993" s="4"/>
-      <c r="AF993" s="4"/>
-      <c r="AG993" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -37493,7 +37537,7 @@
     <mergeCell ref="AA36:AA37"/>
     <mergeCell ref="AB36:AB37"/>
   </mergeCells>
-  <conditionalFormatting sqref="I5:I58 M5:Q24 R5:R58 M26:Q58">
+  <conditionalFormatting sqref="I5:I58 M5:Q24 R5:R58 M26:Q58 I60 R60 I67 M67:R67 I69 M69:R69">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
